--- a/Data/data_waterlevels/obs/03_Bores_within_aquifer.xlsx
+++ b/Data/data_waterlevels/obs/03_Bores_within_aquifer.xlsx
@@ -600,7 +600,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>4.883714999496068</v>
+        <v>12.14185989853993</v>
       </c>
       <c r="R2" t="n">
         <v>154.6108703613281</v>
@@ -619,7 +619,7 @@
         <v>45</v>
       </c>
       <c r="X2" t="n">
-        <v>194.727155361832</v>
+        <v>187.4690104627882</v>
       </c>
     </row>
     <row r="3">
@@ -672,7 +672,7 @@
         <v>53</v>
       </c>
       <c r="Q3" t="n">
-        <v>172.1592343046966</v>
+        <v>166.1005522692371</v>
       </c>
       <c r="R3" t="n">
         <v>300.6790466308594</v>
@@ -695,7 +695,7 @@
         <v>77</v>
       </c>
       <c r="X3" t="n">
-        <v>51.51981232616282</v>
+        <v>57.57849436162232</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>53</v>
       </c>
       <c r="Q4" t="n">
-        <v>104.9330552419028</v>
+        <v>104.8001766204834</v>
       </c>
       <c r="R4" t="n">
         <v>199.0471801757812</v>
@@ -771,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="X4" t="n">
-        <v>106.1141249338784</v>
+        <v>106.2470035552978</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +822,7 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R5" t="n">
         <v>125.8984680175781</v>
@@ -845,7 +845,7 @@
         <v>107.1</v>
       </c>
       <c r="X5" t="n">
-        <v>191.4167644464441</v>
+        <v>198.9960598773638</v>
       </c>
     </row>
     <row r="6">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>-27.57124106089259</v>
+        <v>-25.10836199002592</v>
       </c>
       <c r="R8" t="n">
         <v>114.3051452636719</v>
@@ -1067,7 +1067,7 @@
         <v>128.6</v>
       </c>
       <c r="X8" t="n">
-        <v>168.2763863245645</v>
+        <v>165.8135072536978</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>-27.57124106089259</v>
+        <v>-25.14954909097005</v>
       </c>
       <c r="R9" t="n">
         <v>210.3051452636719</v>
@@ -1141,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="X9" t="n">
-        <v>247.8763863245645</v>
+        <v>245.4546943546419</v>
       </c>
     </row>
     <row r="10">
@@ -1194,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="Q10" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R10" t="n">
         <v>126.8984680175781</v>
@@ -1217,7 +1217,7 @@
         <v>114</v>
       </c>
       <c r="X10" t="n">
-        <v>184.5167644464441</v>
+        <v>192.0960598773638</v>
       </c>
     </row>
     <row r="11">
@@ -1270,7 +1270,7 @@
         <v>195</v>
       </c>
       <c r="Q11" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R11" t="n">
         <v>125.6984680175781</v>
@@ -1293,7 +1293,7 @@
         <v>107.1</v>
       </c>
       <c r="X11" t="n">
-        <v>191.4167644464441</v>
+        <v>198.9960598773638</v>
       </c>
     </row>
     <row r="12">
@@ -1346,7 +1346,7 @@
         <v>50</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.93295819096218</v>
+        <v>75.91583720401026</v>
       </c>
       <c r="R12" t="n">
         <v>186.3034497070312</v>
@@ -1369,7 +1369,7 @@
         <v>70.42000000000002</v>
       </c>
       <c r="X12" t="n">
-        <v>116.370491516069</v>
+        <v>111.3876125030209</v>
       </c>
     </row>
     <row r="13">
@@ -1422,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.93295819096218</v>
+        <v>75.91583720401026</v>
       </c>
       <c r="R13" t="n">
         <v>248.0634497070312</v>
@@ -1445,7 +1445,7 @@
         <v>8.659999999999997</v>
       </c>
       <c r="X13" t="n">
-        <v>178.130491516069</v>
+        <v>173.1476125030209</v>
       </c>
     </row>
     <row r="14">
@@ -1498,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.60282670827085</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R14" t="n">
         <v>199.8667504882812</v>
@@ -1521,7 +1521,7 @@
         <v>40.49000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>117.2639237800103</v>
+        <v>117.5334171549477</v>
       </c>
     </row>
     <row r="15">
@@ -1574,7 +1574,7 @@
         <v>50</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.2462155024211</v>
+        <v>142.4811599066006</v>
       </c>
       <c r="R15" t="n">
         <v>193.3709100341797</v>
@@ -1597,7 +1597,7 @@
         <v>40.38999999999999</v>
       </c>
       <c r="X15" t="n">
-        <v>53.12469453175856</v>
+        <v>51.88975012757908</v>
       </c>
     </row>
     <row r="16">
@@ -1650,7 +1650,7 @@
         <v>50</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.11350887943637</v>
+        <v>12.97257988760665</v>
       </c>
       <c r="R16" t="n">
         <v>143.8686285400391</v>
@@ -1673,7 +1673,7 @@
         <v>100.21</v>
       </c>
       <c r="X16" t="n">
-        <v>114.7551196606027</v>
+        <v>131.8960486524324</v>
       </c>
     </row>
     <row r="17">
@@ -1726,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.11350887943637</v>
+        <v>12.97257988760665</v>
       </c>
       <c r="R17" t="n">
         <v>216.8786285400391</v>
@@ -1749,7 +1749,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>187.7651196606027</v>
+        <v>204.9060486524324</v>
       </c>
     </row>
     <row r="18">
@@ -1862,7 +1862,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>-34.95164851130399</v>
+        <v>-30.09940783182764</v>
       </c>
       <c r="R19" t="n">
         <v>225.4196081542969</v>
@@ -1881,7 +1881,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>290.8512566656009</v>
+        <v>285.9990159861245</v>
       </c>
     </row>
     <row r="20">
@@ -1928,7 +1928,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>80.98392015163112</v>
+        <v>77.05249011082556</v>
       </c>
       <c r="R20" t="n">
         <v>137.6010632324219</v>
@@ -1947,7 +1947,7 @@
         <v>64.00999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>120.6271430807908</v>
+        <v>124.5585731215963</v>
       </c>
     </row>
     <row r="21">
@@ -1994,7 +1994,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>103.3710254148608</v>
+        <v>99.98994319149693</v>
       </c>
       <c r="R21" t="n">
         <v>218.6327282714844</v>
@@ -2013,7 +2013,7 @@
         <v>23.16</v>
       </c>
       <c r="X21" t="n">
-        <v>138.4217028566236</v>
+        <v>141.8027850799874</v>
       </c>
     </row>
     <row r="22">
@@ -2068,7 +2068,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>129.2280373603336</v>
+        <v>136.3867306434984</v>
       </c>
       <c r="R22" t="n">
         <v>213.4787615966797</v>
@@ -2087,7 +2087,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>102.5407242363461</v>
+        <v>95.38203095318133</v>
       </c>
     </row>
     <row r="23">
@@ -2142,7 +2142,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>-13.96590480412531</v>
+        <v>-9.826328863835043</v>
       </c>
       <c r="R23" t="n">
         <v>226.4986968994141</v>
@@ -2161,7 +2161,7 @@
         <v>14.32499999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>254.7896017035394</v>
+        <v>250.6500257632491</v>
       </c>
     </row>
     <row r="24">
@@ -2208,7 +2208,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>43.44785213470459</v>
+        <v>43.34441820780444</v>
       </c>
       <c r="R24" t="n">
         <v>224.0182409667969</v>
@@ -2227,7 +2227,7 @@
         <v>25.60499999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>206.1753888320923</v>
+        <v>206.2788227589924</v>
       </c>
     </row>
     <row r="25">
@@ -2274,7 +2274,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>125.1324039945805</v>
+        <v>124.9234915747161</v>
       </c>
       <c r="R25" t="n">
         <v>234.1297802734375</v>
@@ -2293,7 +2293,7 @@
         <v>23.00999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>132.007376278857</v>
+        <v>132.2162886987214</v>
       </c>
     </row>
     <row r="26">
@@ -2406,7 +2406,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>156.0992407165281</v>
+        <v>165.1220483982702</v>
       </c>
       <c r="R27" t="n">
         <v>228.3310021972656</v>
@@ -2425,7 +2425,7 @@
         <v>9.14500000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>81.37676148073751</v>
+        <v>72.35395379899543</v>
       </c>
     </row>
     <row r="28">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>-1.924139497609388</v>
+        <v>4.166666666666743</v>
       </c>
       <c r="R28" t="n">
         <v>245.6666259765625</v>
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>250.5907654741719</v>
+        <v>244.4999593098958</v>
       </c>
     </row>
     <row r="29">
@@ -2546,7 +2546,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>14.989863749738</v>
+        <v>9.094018063090891</v>
       </c>
       <c r="R29" t="n">
         <v>203.8353955078125</v>
@@ -2565,7 +2565,7 @@
         <v>30.785</v>
       </c>
       <c r="X29" t="n">
-        <v>219.6305317580745</v>
+        <v>225.5263774447216</v>
       </c>
     </row>
     <row r="30">
@@ -2612,7 +2612,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
-        <v>21.45085090527473</v>
+        <v>19.34590871780972</v>
       </c>
       <c r="R30" t="n">
         <v>207.84736328125</v>
@@ -2631,7 +2631,7 @@
         <v>26.97499999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>213.3715123759753</v>
+        <v>215.4764545634403</v>
       </c>
     </row>
     <row r="31">
@@ -2678,7 +2678,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>14.91353117753145</v>
+        <v>8.687593083418921</v>
       </c>
       <c r="R31" t="n">
         <v>204.3069421386719</v>
@@ -2697,7 +2697,7 @@
         <v>31.54500000000002</v>
       </c>
       <c r="X31" t="n">
-        <v>220.9384109611404</v>
+        <v>227.1643490552529</v>
       </c>
     </row>
     <row r="32">
@@ -2744,7 +2744,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>-11.70229250070928</v>
+        <v>-11.75258152655756</v>
       </c>
       <c r="R32" t="n">
         <v>190.4321350097656</v>
@@ -2763,7 +2763,7 @@
         <v>35.05000000000001</v>
       </c>
       <c r="X32" t="n">
-        <v>237.1844275104749</v>
+        <v>237.2347165363232</v>
       </c>
     </row>
     <row r="33">
@@ -2810,7 +2810,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
-        <v>-33.76205151001813</v>
+        <v>-32.59601094346769</v>
       </c>
       <c r="R33" t="n">
         <v>201.0123101806641</v>
@@ -2829,7 +2829,7 @@
         <v>26.66999999999999</v>
       </c>
       <c r="X33" t="n">
-        <v>261.4443616906822</v>
+        <v>260.2783211241318</v>
       </c>
     </row>
     <row r="34">
@@ -2876,7 +2876,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>24.19751485188818</v>
+        <v>25.02759971405522</v>
       </c>
       <c r="R34" t="n">
         <v>201.8933581542969</v>
@@ -2895,7 +2895,7 @@
         <v>29.41499999999999</v>
       </c>
       <c r="X34" t="n">
-        <v>207.1108433024087</v>
+        <v>206.2807584402417</v>
       </c>
     </row>
     <row r="35">
@@ -2942,7 +2942,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
-        <v>8.091061497564137</v>
+        <v>3.279796673318394</v>
       </c>
       <c r="R35" t="n">
         <v>206.0932263183594</v>
@@ -2961,7 +2961,7 @@
         <v>30.935</v>
       </c>
       <c r="X35" t="n">
-        <v>228.9371648207952</v>
+        <v>233.748429645041</v>
       </c>
     </row>
     <row r="36">
@@ -3008,7 +3008,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
-        <v>-51.7555334556562</v>
+        <v>-52.28261361351073</v>
       </c>
       <c r="R36" t="n">
         <v>212.0757043457031</v>
@@ -3027,7 +3027,7 @@
         <v>29.87</v>
       </c>
       <c r="X36" t="n">
-        <v>293.7012378013593</v>
+        <v>294.2283179592139</v>
       </c>
     </row>
     <row r="37">
@@ -3074,7 +3074,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
-        <v>-52.89305463589034</v>
+        <v>-57.13239990700392</v>
       </c>
       <c r="R37" t="n">
         <v>205.0887060546875</v>
@@ -3093,7 +3093,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X37" t="n">
-        <v>288.4617606905779</v>
+        <v>292.7011059616914</v>
       </c>
     </row>
     <row r="38">
@@ -3140,7 +3140,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>-55.09775594366812</v>
+        <v>-55.96199418661431</v>
       </c>
       <c r="R38" t="n">
         <v>235.40822265625</v>
@@ -3159,7 +3159,7 @@
         <v>24.38499999999999</v>
       </c>
       <c r="X38" t="n">
-        <v>314.8909785999181</v>
+        <v>315.7552168428643</v>
       </c>
     </row>
     <row r="39">
@@ -3206,7 +3206,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
-        <v>29.63612416865857</v>
+        <v>22.83381788703063</v>
       </c>
       <c r="R39" t="n">
         <v>211.7538293457031</v>
@@ -3225,7 +3225,7 @@
         <v>26.81999999999999</v>
       </c>
       <c r="X39" t="n">
-        <v>208.9377051770446</v>
+        <v>215.7400114586725</v>
       </c>
     </row>
     <row r="40">
@@ -3272,7 +3272,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="n">
-        <v>28.74091656066069</v>
+        <v>29.27829249257274</v>
       </c>
       <c r="R40" t="n">
         <v>253.3525695800781</v>
@@ -3291,7 +3291,7 @@
         <v>3.125</v>
       </c>
       <c r="X40" t="n">
-        <v>227.7366530194174</v>
+        <v>227.1992770875054</v>
       </c>
     </row>
     <row r="41">
@@ -3338,7 +3338,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>-18.27517350514722</v>
+        <v>-19.23174858093262</v>
       </c>
       <c r="R41" t="n">
         <v>251.7589953613281</v>
@@ -3357,7 +3357,7 @@
         <v>13.71499999999997</v>
       </c>
       <c r="X41" t="n">
-        <v>283.7491688664754</v>
+        <v>284.7057439422608</v>
       </c>
     </row>
     <row r="42">
@@ -3404,7 +3404,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>-16.20171011260442</v>
+        <v>-15.47834013585405</v>
       </c>
       <c r="R42" t="n">
         <v>215.6463427734375</v>
@@ -3423,7 +3423,7 @@
         <v>32.61500000000001</v>
       </c>
       <c r="X42" t="n">
-        <v>264.4630528860419</v>
+        <v>263.7396829092916</v>
       </c>
     </row>
     <row r="43">
@@ -3470,7 +3470,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>-3.126941934888771</v>
+        <v>-1.753622932342015</v>
       </c>
       <c r="R43" t="n">
         <v>223.3352612304688</v>
@@ -3489,7 +3489,7 @@
         <v>19.81</v>
       </c>
       <c r="X43" t="n">
-        <v>246.2722031653576</v>
+        <v>244.8988841628108</v>
       </c>
     </row>
     <row r="44">
@@ -3536,7 +3536,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>79.35658208663777</v>
+        <v>74.79416474587239</v>
       </c>
       <c r="R44" t="n">
         <v>214.0860864257812</v>
@@ -3555,7 +3555,7 @@
         <v>20.42000000000002</v>
       </c>
       <c r="X44" t="n">
-        <v>155.1495043391434</v>
+        <v>159.7119216799088</v>
       </c>
     </row>
     <row r="45">
@@ -3602,7 +3602,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>3.341669873387636</v>
+        <v>1.923418833140067</v>
       </c>
       <c r="R45" t="n">
         <v>230.2444104003906</v>
@@ -3621,7 +3621,7 @@
         <v>19.81</v>
       </c>
       <c r="X45" t="n">
-        <v>246.712740527003</v>
+        <v>248.1309915672506</v>
       </c>
     </row>
     <row r="46">
@@ -3668,7 +3668,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>61.07888013396315</v>
+        <v>56.13914723201022</v>
       </c>
       <c r="R46" t="n">
         <v>217.2561242675781</v>
@@ -3687,7 +3687,7 @@
         <v>23.62</v>
       </c>
       <c r="X46" t="n">
-        <v>179.797244133615</v>
+        <v>184.7369770355679</v>
       </c>
     </row>
     <row r="47">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>19.89373179025384</v>
+        <v>19.37588554875959</v>
       </c>
       <c r="R47" t="n">
         <v>200.9783996582031</v>
@@ -3761,7 +3761,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="X47" t="n">
-        <v>210.0846678679493</v>
+        <v>210.6025141094435</v>
       </c>
     </row>
     <row r="48">
@@ -3808,7 +3808,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
-        <v>-89.16671628783448</v>
+        <v>-94.53545330701198</v>
       </c>
       <c r="R48" t="n">
         <v>198.52576171875</v>
@@ -3827,7 +3827,7 @@
         <v>51.815</v>
       </c>
       <c r="X48" t="n">
-        <v>339.5074780065845</v>
+        <v>344.876215025762</v>
       </c>
     </row>
     <row r="49">
@@ -3874,7 +3874,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>-65.58088735703795</v>
+        <v>-75</v>
       </c>
       <c r="R49" t="n">
         <v>198.0232458496094</v>
@@ -3893,7 +3893,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X49" t="n">
-        <v>294.0841332066473</v>
+        <v>303.5032458496094</v>
       </c>
     </row>
     <row r="50">
@@ -3940,7 +3940,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
-        <v>-70.41602018123211</v>
+        <v>-75</v>
       </c>
       <c r="R50" t="n">
         <v>257.0063525390625</v>
@@ -3959,7 +3959,7 @@
         <v>12.19</v>
       </c>
       <c r="X50" t="n">
-        <v>339.6123727202946</v>
+        <v>344.1963525390625</v>
       </c>
     </row>
     <row r="51">
@@ -4006,7 +4006,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
-        <v>-102.4494737284418</v>
+        <v>-99.26605224609375</v>
       </c>
       <c r="R51" t="n">
         <v>251.9586010742188</v>
@@ -4025,7 +4025,7 @@
         <v>21.33499999999998</v>
       </c>
       <c r="X51" t="n">
-        <v>375.7430748026606</v>
+        <v>372.5596533203126</v>
       </c>
     </row>
     <row r="52">
@@ -4072,7 +4072,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>-21.99732118237411</v>
+        <v>-13.3409157800978</v>
       </c>
       <c r="R52" t="n">
         <v>205.2593505859375</v>
@@ -4091,7 +4091,7 @@
         <v>22.09999999999999</v>
       </c>
       <c r="X52" t="n">
-        <v>249.3566717683116</v>
+        <v>240.7002663660353</v>
       </c>
     </row>
     <row r="53">
@@ -4146,7 +4146,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>-76.23809216883507</v>
+        <v>-79.14193761208641</v>
       </c>
       <c r="R53" t="n">
         <v>240.6561389160156</v>
@@ -4165,7 +4165,7 @@
         <v>31.24000000000001</v>
       </c>
       <c r="X53" t="n">
-        <v>348.1342310848507</v>
+        <v>351.038076528102</v>
       </c>
     </row>
     <row r="54">
@@ -4212,7 +4212,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
-        <v>14.63664308299412</v>
+        <v>40.44488831388983</v>
       </c>
       <c r="R54" t="n">
         <v>239.1244934082031</v>
@@ -4231,7 +4231,7 @@
         <v>20.72500000000002</v>
       </c>
       <c r="X54" t="n">
-        <v>245.212850325209</v>
+        <v>219.4046050943133</v>
       </c>
     </row>
     <row r="55">
@@ -4278,7 +4278,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
-        <v>-88.24016120459689</v>
+        <v>-90.98802245751477</v>
       </c>
       <c r="R55" t="n">
         <v>202.4469836425781</v>
@@ -4297,7 +4297,7 @@
         <v>31.09</v>
       </c>
       <c r="X55" t="n">
-        <v>321.777144847175</v>
+        <v>324.5250061000929</v>
       </c>
     </row>
     <row r="56">
@@ -4344,7 +4344,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>-74.814181009482</v>
+        <v>-75</v>
       </c>
       <c r="R56" t="n">
         <v>219.7227600097656</v>
@@ -4363,7 +4363,7 @@
         <v>22.09999999999999</v>
       </c>
       <c r="X56" t="n">
-        <v>316.6369410192476</v>
+        <v>316.8227600097656</v>
       </c>
     </row>
     <row r="57">
@@ -4410,7 +4410,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
-        <v>-58.83591969807935</v>
+        <v>-62.12543760249373</v>
       </c>
       <c r="R57" t="n">
         <v>197.7957550048828</v>
@@ -4429,7 +4429,7 @@
         <v>26.44999999999999</v>
       </c>
       <c r="X57" t="n">
-        <v>283.0816747029622</v>
+        <v>286.3711926073765</v>
       </c>
     </row>
     <row r="58">
@@ -4476,7 +4476,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>-47.8163560231526</v>
+        <v>-49.45921897888184</v>
       </c>
       <c r="R58" t="n">
         <v>201.0093298339844</v>
@@ -4495,7 +4495,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X58" t="n">
-        <v>279.305685857137</v>
+        <v>280.9485488128662</v>
       </c>
     </row>
     <row r="59">
@@ -4542,7 +4542,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>43.10706936789207</v>
+        <v>23.00432021148581</v>
       </c>
       <c r="R59" t="n">
         <v>211.1771545410156</v>
@@ -4561,7 +4561,7 @@
         <v>23.25</v>
       </c>
       <c r="X59" t="n">
-        <v>191.3200851731235</v>
+        <v>211.4228343295298</v>
       </c>
     </row>
     <row r="60">
@@ -4608,7 +4608,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>11.55659325748766</v>
+        <v>24.19644675534912</v>
       </c>
       <c r="R60" t="n">
         <v>202.961572265625</v>
@@ -4627,7 +4627,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="X60" t="n">
-        <v>210.6049790081373</v>
+        <v>197.9651255102759</v>
       </c>
     </row>
     <row r="61">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="n">
-        <v>202.2143383458469</v>
+        <v>201.2096563975017</v>
       </c>
       <c r="R61" t="n">
         <v>226.242431640625</v>
@@ -4701,7 +4701,7 @@
         <v>56</v>
       </c>
       <c r="X61" t="n">
-        <v>32.02809329477807</v>
+        <v>33.0327752431233</v>
       </c>
     </row>
     <row r="62">
@@ -4754,7 +4754,7 @@
         <v>125</v>
       </c>
       <c r="Q62" t="n">
-        <v>-34.1961463292439</v>
+        <v>-32.14281058140831</v>
       </c>
       <c r="R62" t="n">
         <v>172.4865600585938</v>
@@ -4777,7 +4777,7 @@
         <v>102</v>
       </c>
       <c r="X62" t="n">
-        <v>220.4827063878377</v>
+        <v>218.4293706400021</v>
       </c>
     </row>
     <row r="63">
@@ -4824,7 +4824,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>191.4063851038616</v>
+        <v>190.2888689570751</v>
       </c>
       <c r="R63" t="n">
         <v>221.9718127441406</v>
@@ -4843,7 +4843,7 @@
         <v>37.49000000000001</v>
       </c>
       <c r="X63" t="n">
-        <v>68.05542764027905</v>
+        <v>69.17294378706555</v>
       </c>
     </row>
     <row r="64">
@@ -4890,7 +4890,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>198.8307243084576</v>
+        <v>191.5051354257059</v>
       </c>
       <c r="R64" t="n">
         <v>211.2255017089844</v>
@@ -4909,7 +4909,7 @@
         <v>37.035</v>
       </c>
       <c r="X64" t="n">
-        <v>49.42977740052677</v>
+        <v>56.75536628327851</v>
       </c>
     </row>
     <row r="65">
@@ -4956,7 +4956,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="n">
-        <v>127.0800696851928</v>
+        <v>120.5295324325562</v>
       </c>
       <c r="R65" t="n">
         <v>189.6340563964844</v>
@@ -4975,7 +4975,7 @@
         <v>42.215</v>
       </c>
       <c r="X65" t="n">
-        <v>104.7689867112915</v>
+        <v>111.3195239639282</v>
       </c>
     </row>
     <row r="66">
@@ -5022,7 +5022,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="n">
-        <v>41.69197085475765</v>
+        <v>43.49058469136571</v>
       </c>
       <c r="R66" t="n">
         <v>213.1347473144531</v>
@@ -5041,7 +5041,7 @@
         <v>22.59999999999999</v>
       </c>
       <c r="X66" t="n">
-        <v>194.0427764596955</v>
+        <v>192.2441626230874</v>
       </c>
     </row>
     <row r="67">
@@ -5088,7 +5088,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>188.6995871861777</v>
+        <v>188.1205081939697</v>
       </c>
       <c r="R67" t="n">
         <v>213.3782263183594</v>
@@ -5107,7 +5107,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X67" t="n">
-        <v>55.15863913218166</v>
+        <v>55.73771812438966</v>
       </c>
     </row>
     <row r="68">
@@ -5154,7 +5154,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>133.6874832832896</v>
+        <v>130.9572859757061</v>
       </c>
       <c r="R68" t="n">
         <v>228.6163854980469</v>
@@ -5173,7 +5173,7 @@
         <v>30.48000000000002</v>
       </c>
       <c r="X68" t="n">
-        <v>125.4089022147573</v>
+        <v>128.1390995223408</v>
       </c>
     </row>
     <row r="69">
@@ -5220,7 +5220,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>188.713026046753</v>
+        <v>188.8856172561646</v>
       </c>
       <c r="R69" t="n">
         <v>213.6415246582031</v>
@@ -5239,7 +5239,7 @@
         <v>21.94499999999999</v>
       </c>
       <c r="X69" t="n">
-        <v>46.87349861145017</v>
+        <v>46.70090740203858</v>
       </c>
     </row>
     <row r="70">
@@ -5286,7 +5286,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
-        <v>188.7130260467529</v>
+        <v>189.4168472199509</v>
       </c>
       <c r="R70" t="n">
         <v>215.29599609375</v>
@@ -5305,7 +5305,7 @@
         <v>25.30000000000001</v>
       </c>
       <c r="X70" t="n">
-        <v>51.88297004699706</v>
+        <v>51.17914887379914</v>
       </c>
     </row>
     <row r="71">
@@ -5352,7 +5352,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>177.4937088348521</v>
+        <v>174.428319981513</v>
       </c>
       <c r="R71" t="n">
         <v>187.9462329101562</v>
@@ -5371,7 +5371,7 @@
         <v>50.44</v>
       </c>
       <c r="X71" t="n">
-        <v>60.89252407530412</v>
+        <v>63.95791292864317</v>
       </c>
     </row>
     <row r="72">
@@ -5418,7 +5418,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>179.3997174141423</v>
+        <v>179.1000129684091</v>
       </c>
       <c r="R72" t="n">
         <v>194.4202685546875</v>
@@ -5437,7 +5437,7 @@
         <v>24.99000000000001</v>
       </c>
       <c r="X72" t="n">
-        <v>40.01055114054518</v>
+        <v>40.31025558627837</v>
       </c>
     </row>
     <row r="73">
@@ -5492,7 +5492,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
-        <v>-44.08095677693677</v>
+        <v>-39.50241074709679</v>
       </c>
       <c r="R73" t="n">
         <v>194.2087731933594</v>
@@ -5511,7 +5511,7 @@
         <v>40.845</v>
       </c>
       <c r="X73" t="n">
-        <v>279.1347299702961</v>
+        <v>274.5561839404562</v>
       </c>
     </row>
     <row r="74">
@@ -5566,7 +5566,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>-31.15956122060039</v>
+        <v>-32.0397241959378</v>
       </c>
       <c r="R74" t="n">
         <v>186.4377185058594</v>
@@ -5585,7 +5585,7 @@
         <v>51.815</v>
       </c>
       <c r="X74" t="n">
-        <v>269.4122797264598</v>
+        <v>270.2924427017972</v>
       </c>
     </row>
     <row r="75">
@@ -5632,7 +5632,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>71.84782777632904</v>
+        <v>57.21586084856295</v>
       </c>
       <c r="R75" t="n">
         <v>276.4844665527344</v>
@@ -5651,7 +5651,7 @@
         <v>2.25</v>
       </c>
       <c r="X75" t="n">
-        <v>206.8866387764053</v>
+        <v>221.5186057041714</v>
       </c>
     </row>
     <row r="76">
@@ -5698,7 +5698,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
-        <v>1.692627474066026</v>
+        <v>2.34504375586304</v>
       </c>
       <c r="R76" t="n">
         <v>211.1236315917969</v>
@@ -5717,7 +5717,7 @@
         <v>40.69</v>
       </c>
       <c r="X76" t="n">
-        <v>250.1210041177308</v>
+        <v>249.4685878359338</v>
       </c>
     </row>
     <row r="77">
@@ -5764,7 +5764,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
-        <v>-84.18640817134246</v>
+        <v>-84.43157389737351</v>
       </c>
       <c r="R77" t="n">
         <v>285.0374475097656</v>
@@ -5783,7 +5783,7 @@
         <v>1.220000000000027</v>
       </c>
       <c r="X77" t="n">
-        <v>370.4438556811081</v>
+        <v>370.6890214071391</v>
       </c>
     </row>
     <row r="78">
@@ -5830,7 +5830,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="n">
-        <v>-112.0583375295002</v>
+        <v>-111.4801839180322</v>
       </c>
       <c r="R78" t="n">
         <v>212.700712890625</v>
@@ -5849,7 +5849,7 @@
         <v>32.76499999999999</v>
       </c>
       <c r="X78" t="n">
-        <v>357.5240504201253</v>
+        <v>356.9458968086572</v>
       </c>
     </row>
     <row r="79">
@@ -5896,7 +5896,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="n">
-        <v>-67.72819310267546</v>
+        <v>-62.13262173997632</v>
       </c>
       <c r="R79" t="n">
         <v>209.6440893554688</v>
@@ -5915,7 +5915,7 @@
         <v>27.43000000000001</v>
       </c>
       <c r="X79" t="n">
-        <v>304.8022824581442</v>
+        <v>299.2067110954451</v>
       </c>
     </row>
     <row r="80">
@@ -5962,7 +5962,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="n">
-        <v>-36.04815437692497</v>
+        <v>-34.50837185186134</v>
       </c>
       <c r="R80" t="n">
         <v>226.7663146972656</v>
@@ -5981,7 +5981,7 @@
         <v>30.02499999999998</v>
       </c>
       <c r="X80" t="n">
-        <v>292.8394690741906</v>
+        <v>291.299686549127</v>
       </c>
     </row>
     <row r="81">
@@ -6028,7 +6028,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
-        <v>-109.1742224870982</v>
+        <v>-109.446366628011</v>
       </c>
       <c r="R81" t="n">
         <v>209.6197229003906</v>
@@ -6047,7 +6047,7 @@
         <v>39.47</v>
       </c>
       <c r="X81" t="n">
-        <v>358.2639453874888</v>
+        <v>358.5360895284016</v>
       </c>
     </row>
     <row r="82">
@@ -6094,7 +6094,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>-83.4894222915409</v>
+        <v>-76.212946027847</v>
       </c>
       <c r="R82" t="n">
         <v>206.5257934570312</v>
@@ -6113,7 +6113,7 @@
         <v>35.05000000000001</v>
       </c>
       <c r="X82" t="n">
-        <v>325.0652157485721</v>
+        <v>317.7887394848782</v>
       </c>
     </row>
     <row r="83">
@@ -6160,7 +6160,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>2.586000623467828</v>
+        <v>4.166666666666742</v>
       </c>
       <c r="R83" t="n">
         <v>227.1786706542969</v>
@@ -6179,7 +6179,7 @@
         <v>29.87</v>
       </c>
       <c r="X83" t="n">
-        <v>254.462670030829</v>
+        <v>252.8820039876301</v>
       </c>
     </row>
     <row r="84">
@@ -6226,7 +6226,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="n">
-        <v>-114.8163239161172</v>
+        <v>-114.6325995679676</v>
       </c>
       <c r="R84" t="n">
         <v>188.6025390625</v>
@@ -6245,7 +6245,7 @@
         <v>50</v>
       </c>
       <c r="X84" t="n">
-        <v>353.4188629786172</v>
+        <v>353.2351386304676</v>
       </c>
     </row>
     <row r="85">
@@ -6292,7 +6292,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="n">
-        <v>-27.57124106089259</v>
+        <v>-24.93465741475416</v>
       </c>
       <c r="R85" t="n">
         <v>206.5324914550781</v>
@@ -6311,7 +6311,7 @@
         <v>29.87</v>
       </c>
       <c r="X85" t="n">
-        <v>263.9737325159707</v>
+        <v>261.3371488698323</v>
       </c>
     </row>
     <row r="86">
@@ -6358,7 +6358,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>-64.15183757664381</v>
+        <v>-55.87748361419082</v>
       </c>
       <c r="R86" t="n">
         <v>210.5811364746094</v>
@@ -6377,7 +6377,7 @@
         <v>34.745</v>
       </c>
       <c r="X86" t="n">
-        <v>309.4779740512532</v>
+        <v>301.2036200888002</v>
       </c>
     </row>
     <row r="87">
@@ -6424,7 +6424,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>-90.89917943326027</v>
+        <v>-89.46360157552475</v>
       </c>
       <c r="R87" t="n">
         <v>175.3785705566406</v>
@@ -6443,7 +6443,7 @@
         <v>53</v>
       </c>
       <c r="X87" t="n">
-        <v>319.2777499899009</v>
+        <v>317.8421721321654</v>
       </c>
     </row>
     <row r="88">
@@ -6490,7 +6490,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>-23.30937161588747</v>
+        <v>-16.2190463156663</v>
       </c>
       <c r="R88" t="n">
         <v>218.1184521484375</v>
@@ -6509,7 +6509,7 @@
         <v>21.33500000000001</v>
       </c>
       <c r="X88" t="n">
-        <v>262.7628237643249</v>
+        <v>255.6724984641038</v>
       </c>
     </row>
     <row r="89">
@@ -6556,7 +6556,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>-35.71685155232739</v>
+        <v>-37.51161893208814</v>
       </c>
       <c r="R89" t="n">
         <v>217.2036303710938</v>
@@ -6575,7 +6575,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="X89" t="n">
-        <v>271.2104819234212</v>
+        <v>273.0052493031819</v>
       </c>
     </row>
     <row r="90">
@@ -6622,7 +6622,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="n">
-        <v>4.166666666666742</v>
+        <v>2.779152801240441</v>
       </c>
       <c r="R90" t="n">
         <v>236.0668371582031</v>
@@ -6641,7 +6641,7 @@
         <v>12.95500000000001</v>
       </c>
       <c r="X90" t="n">
-        <v>244.8551704915364</v>
+        <v>246.2426843569627</v>
       </c>
     </row>
     <row r="91">
@@ -6688,7 +6688,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>-102.0305642764026</v>
+        <v>-101.7179037624794</v>
       </c>
       <c r="R91" t="n">
         <v>231.6699829101562</v>
@@ -6707,7 +6707,7 @@
         <v>28</v>
       </c>
       <c r="X91" t="n">
-        <v>361.7005471865588</v>
+        <v>361.3878866726357</v>
       </c>
     </row>
     <row r="92">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="n">
-        <v>4.166666666666742</v>
+        <v>0.05350136112081971</v>
       </c>
       <c r="R92" t="n">
         <v>7.408935546875</v>
@@ -6789,7 +6789,7 @@
         <v>233</v>
       </c>
       <c r="X92" t="n">
-        <v>20.24226888020826</v>
+        <v>24.35543418575418</v>
       </c>
     </row>
     <row r="93">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
-        <v>-75</v>
+        <v>-75.08439911632323</v>
       </c>
       <c r="R93" t="n">
         <v>15.54800415039062</v>
@@ -6871,7 +6871,7 @@
         <v>230</v>
       </c>
       <c r="X93" t="n">
-        <v>110.5480041503906</v>
+        <v>110.6324032667139</v>
       </c>
     </row>
     <row r="94">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>-102.8636752109274</v>
+        <v>-94.98582413944337</v>
       </c>
       <c r="R95" t="n">
         <v>185.7731323242188</v>
@@ -7035,7 +7035,7 @@
         <v>74.30000000000001</v>
       </c>
       <c r="X95" t="n">
-        <v>324.3368075351462</v>
+        <v>316.4589564636622</v>
       </c>
     </row>
     <row r="96">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="n">
-        <v>84.82901451811017</v>
+        <v>102.1638923991119</v>
       </c>
       <c r="R96" t="n">
         <v>190.0364990234375</v>
@@ -7117,7 +7117,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="X96" t="n">
-        <v>133.1074845053273</v>
+        <v>115.7726066243256</v>
       </c>
     </row>
     <row r="97">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="n">
-        <v>-15.93241792096627</v>
+        <v>-26.53463681538893</v>
       </c>
       <c r="R97" t="n">
         <v>92.91084228515621</v>
@@ -7191,7 +7191,7 @@
         <v>166.025</v>
       </c>
       <c r="X97" t="n">
-        <v>120.2082602061225</v>
+        <v>130.8104791005451</v>
       </c>
     </row>
     <row r="98">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
-        <v>-15.99045598512094</v>
+        <v>-26.53463681538892</v>
       </c>
       <c r="R98" t="n">
         <v>-34.49915771484382</v>
@@ -7273,7 +7273,7 @@
         <v>166.5</v>
       </c>
       <c r="X98" t="n">
-        <v>119.7912982702771</v>
+        <v>130.3354791005451</v>
       </c>
     </row>
     <row r="99">
@@ -7320,7 +7320,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
-        <v>33.76553058624268</v>
+        <v>33.89493624369311</v>
       </c>
       <c r="R99" t="n">
         <v>203.7813864746094</v>
@@ -7339,7 +7339,7 @@
         <v>33.22300000000001</v>
       </c>
       <c r="X99" t="n">
-        <v>203.2388558883667</v>
+        <v>203.1094502309163</v>
       </c>
     </row>
     <row r="100">
@@ -7392,7 +7392,7 @@
         <v>100</v>
       </c>
       <c r="Q100" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R100" t="n">
         <v>126.8984680175781</v>
@@ -7415,7 +7415,7 @@
         <v>114</v>
       </c>
       <c r="X100" t="n">
-        <v>184.5167644464441</v>
+        <v>192.0960598773638</v>
       </c>
     </row>
     <row r="101">
@@ -7468,7 +7468,7 @@
         <v>161</v>
       </c>
       <c r="Q101" t="n">
-        <v>-67.8049353878653</v>
+        <v>-70.06401837966514</v>
       </c>
       <c r="R101" t="n">
         <v>131.7214965820312</v>
@@ -7491,7 +7491,7 @@
         <v>124.5</v>
       </c>
       <c r="X101" t="n">
-        <v>235.0264319698965</v>
+        <v>237.2855149616963</v>
       </c>
     </row>
     <row r="102">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="n">
-        <v>-57.52486150101472</v>
+        <v>-55.6778829794773</v>
       </c>
       <c r="R102" t="n">
         <v>-5.638824462890625</v>
@@ -7565,7 +7565,7 @@
         <v>250</v>
       </c>
       <c r="X102" t="n">
-        <v>101.8860370381241</v>
+        <v>100.0390585165867</v>
       </c>
     </row>
     <row r="103">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
-        <v>1.112244337621536</v>
+        <v>-0.8059414562337776</v>
       </c>
       <c r="R103" t="n">
         <v>66.89600219726563</v>
@@ -7639,7 +7639,7 @@
         <v>212.275</v>
       </c>
       <c r="X103" t="n">
-        <v>75.60875785964409</v>
+        <v>77.5269436534994</v>
       </c>
     </row>
     <row r="104">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
-        <v>1.116280132286156</v>
+        <v>-0.8047382946773302</v>
       </c>
       <c r="R104" t="n">
         <v>5.996002197265625</v>
@@ -7713,7 +7713,7 @@
         <v>209.775</v>
       </c>
       <c r="X104" t="n">
-        <v>78.10472206497947</v>
+        <v>80.02574049194295</v>
       </c>
     </row>
     <row r="105">
@@ -7766,7 +7766,7 @@
         <v>53</v>
       </c>
       <c r="Q105" t="n">
-        <v>149.029552680046</v>
+        <v>150.6053159205198</v>
       </c>
       <c r="R105" t="n">
         <v>209.6238403320312</v>
@@ -7789,7 +7789,7 @@
         <v>78</v>
       </c>
       <c r="X105" t="n">
-        <v>72.59428765198516</v>
+        <v>71.01852441151135</v>
       </c>
     </row>
     <row r="106">
@@ -7842,7 +7842,7 @@
         <v>53</v>
       </c>
       <c r="Q106" t="n">
-        <v>151.1291998319145</v>
+        <v>152.2324038223136</v>
       </c>
       <c r="R106" t="n">
         <v>204.7783813476562</v>
@@ -7865,7 +7865,7 @@
         <v>84</v>
       </c>
       <c r="X106" t="n">
-        <v>65.64918151574165</v>
+        <v>64.54597752534261</v>
       </c>
     </row>
     <row r="107">
@@ -7918,7 +7918,7 @@
         <v>53</v>
       </c>
       <c r="Q107" t="n">
-        <v>153.8878374056418</v>
+        <v>151.6290187835693</v>
       </c>
       <c r="R107" t="n">
         <v>122.3320007324219</v>
@@ -7941,7 +7941,7 @@
         <v>134</v>
       </c>
       <c r="X107" t="n">
-        <v>20.44416332678009</v>
+        <v>22.70298194885254</v>
       </c>
     </row>
     <row r="108">
@@ -7994,7 +7994,7 @@
         <v>53</v>
       </c>
       <c r="Q108" t="n">
-        <v>153.9302111348507</v>
+        <v>151.6290187835693</v>
       </c>
       <c r="R108" t="n">
         <v>218.5811462402344</v>
@@ -8017,7 +8017,7 @@
         <v>84</v>
       </c>
       <c r="X108" t="n">
-        <v>70.65093510538367</v>
+        <v>72.95212745666504</v>
       </c>
     </row>
     <row r="109">
@@ -8070,7 +8070,7 @@
         <v>100</v>
       </c>
       <c r="Q109" t="n">
-        <v>89.60342232024951</v>
+        <v>92.15142456491982</v>
       </c>
       <c r="R109" t="n">
         <v>212.3096618652344</v>
@@ -8093,7 +8093,7 @@
         <v>2</v>
       </c>
       <c r="X109" t="n">
-        <v>124.2062395449849</v>
+        <v>121.6582373003146</v>
       </c>
     </row>
     <row r="110">
@@ -8140,7 +8140,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>171.2075263745058</v>
+        <v>182.0138518359049</v>
       </c>
       <c r="R110" t="n">
         <v>195.1301281738281</v>
@@ -8159,7 +8159,7 @@
         <v>22.85999999999999</v>
       </c>
       <c r="X110" t="n">
-        <v>46.78260179932226</v>
+        <v>35.97627633792325</v>
       </c>
     </row>
     <row r="111">
@@ -8272,7 +8272,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>83.33333333333348</v>
+        <v>83.80760125956401</v>
       </c>
       <c r="R112" t="n">
         <v>179.4833728027344</v>
@@ -8291,7 +8291,7 @@
         <v>12.19</v>
       </c>
       <c r="X112" t="n">
-        <v>108.3400394694009</v>
+        <v>107.8657715431704</v>
       </c>
     </row>
     <row r="113">
@@ -8338,7 +8338,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="n">
-        <v>93.08214806684707</v>
+        <v>92.74700439862303</v>
       </c>
       <c r="R113" t="n">
         <v>191.1822326660156</v>
@@ -8357,7 +8357,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="X113" t="n">
-        <v>136.2000845991686</v>
+        <v>136.5352282673926</v>
       </c>
     </row>
     <row r="114">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="n">
-        <v>122.1200881247004</v>
+        <v>136.8985947071564</v>
       </c>
       <c r="R114" t="n">
         <v>221.7944073486328</v>
@@ -8431,7 +8431,7 @@
         <v>9.754999999999995</v>
       </c>
       <c r="X114" t="n">
-        <v>103.9393192239324</v>
+        <v>89.16081264147638</v>
       </c>
     </row>
     <row r="115">
@@ -8552,7 +8552,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
-        <v>159.7536295889378</v>
+        <v>159.8346246569746</v>
       </c>
       <c r="R116" t="n">
         <v>209.4390289306641</v>
@@ -8571,7 +8571,7 @@
         <v>1.525000000000006</v>
       </c>
       <c r="X116" t="n">
-        <v>51.21039934172632</v>
+        <v>51.12940427368949</v>
       </c>
     </row>
     <row r="117">
@@ -8618,7 +8618,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="n">
-        <v>87.27917453376858</v>
+        <v>88.11623085050557</v>
       </c>
       <c r="R117" t="n">
         <v>208.1182189941406</v>
@@ -8637,7 +8637,7 @@
         <v>36.57499999999999</v>
       </c>
       <c r="X117" t="n">
-        <v>157.4140444603721</v>
+        <v>156.576988143635</v>
       </c>
     </row>
     <row r="118">
@@ -8684,7 +8684,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="n">
-        <v>158.4508532852494</v>
+        <v>160.2835495081178</v>
       </c>
       <c r="R118" t="n">
         <v>180.0775170898438</v>
@@ -8703,7 +8703,7 @@
         <v>45.72</v>
       </c>
       <c r="X118" t="n">
-        <v>67.34666380459444</v>
+        <v>65.51396758172601</v>
       </c>
     </row>
     <row r="119">
@@ -8750,7 +8750,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="n">
-        <v>66.15031560262059</v>
+        <v>65.97832838694262</v>
       </c>
       <c r="R119" t="n">
         <v>199.055986328125</v>
@@ -8769,7 +8769,7 @@
         <v>50.28999999999999</v>
       </c>
       <c r="X119" t="n">
-        <v>183.1956707255044</v>
+        <v>183.3676579411824</v>
       </c>
     </row>
     <row r="120">
@@ -8816,7 +8816,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="n">
-        <v>130.3698447683876</v>
+        <v>116.5488053834729</v>
       </c>
       <c r="R120" t="n">
         <v>189.6552978515625</v>
@@ -8835,7 +8835,7 @@
         <v>49.07499999999999</v>
       </c>
       <c r="X120" t="n">
-        <v>108.3604530831749</v>
+        <v>122.1814924680897</v>
       </c>
     </row>
     <row r="121">
@@ -8882,7 +8882,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="n">
-        <v>112.2927188873291</v>
+        <v>111.7832501729331</v>
       </c>
       <c r="R121" t="n">
         <v>199.0659729003906</v>
@@ -8901,7 +8901,7 @@
         <v>49.07499999999999</v>
       </c>
       <c r="X121" t="n">
-        <v>135.8482540130615</v>
+        <v>136.3577227274575</v>
       </c>
     </row>
     <row r="122">
@@ -8948,7 +8948,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="n">
-        <v>159.0881334186336</v>
+        <v>158.2789722313741</v>
       </c>
       <c r="R122" t="n">
         <v>199.4229412841797</v>
@@ -8967,7 +8967,7 @@
         <v>21.33500000000001</v>
       </c>
       <c r="X122" t="n">
-        <v>61.66980786554609</v>
+        <v>62.47896905280561</v>
       </c>
     </row>
     <row r="123">
@@ -9014,7 +9014,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="n">
-        <v>164.7274216084651</v>
+        <v>173.1361649785245</v>
       </c>
       <c r="R123" t="n">
         <v>206.1883569335938</v>
@@ -9033,7 +9033,7 @@
         <v>45.72</v>
       </c>
       <c r="X123" t="n">
-        <v>87.18093532512873</v>
+        <v>78.77219195506927</v>
       </c>
     </row>
     <row r="124">
@@ -9088,7 +9088,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="n">
-        <v>179.0956338246665</v>
+        <v>177.4650017420452</v>
       </c>
       <c r="R124" t="n">
         <v>192.1861047363281</v>
@@ -9107,7 +9107,7 @@
         <v>48.77000000000001</v>
       </c>
       <c r="X124" t="n">
-        <v>61.86047091166162</v>
+        <v>63.49110299428295</v>
       </c>
     </row>
     <row r="125">
@@ -9154,7 +9154,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="n">
-        <v>66.31016273373834</v>
+        <v>59.13927677541299</v>
       </c>
       <c r="R125" t="n">
         <v>183.6366711425781</v>
@@ -9173,7 +9173,7 @@
         <v>60.96000000000001</v>
       </c>
       <c r="X125" t="n">
-        <v>178.2865084088398</v>
+        <v>185.4573943671651</v>
       </c>
     </row>
     <row r="126">
@@ -9220,7 +9220,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="n">
-        <v>139.7340605793179</v>
+        <v>142.8276220957439</v>
       </c>
       <c r="R126" t="n">
         <v>190.0818896484375</v>
@@ -9239,7 +9239,7 @@
         <v>54.86500000000001</v>
       </c>
       <c r="X126" t="n">
-        <v>105.2128290691196</v>
+        <v>102.1192675526936</v>
       </c>
     </row>
     <row r="127">
@@ -9286,7 +9286,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="n">
-        <v>151.8154040875989</v>
+        <v>142.0838734324111</v>
       </c>
       <c r="R127" t="n">
         <v>192.3613159179688</v>
@@ -9305,7 +9305,7 @@
         <v>41.15000000000001</v>
       </c>
       <c r="X127" t="n">
-        <v>81.69591183036991</v>
+        <v>91.42744248555766</v>
       </c>
     </row>
     <row r="128">
@@ -9352,7 +9352,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="n">
-        <v>159.8410428537777</v>
+        <v>157.8240230213968</v>
       </c>
       <c r="R128" t="n">
         <v>204.9789306640625</v>
@@ -9371,7 +9371,7 @@
         <v>41.15000000000001</v>
       </c>
       <c r="X128" t="n">
-        <v>86.28788781028484</v>
+        <v>88.30490764266565</v>
       </c>
     </row>
     <row r="129">
@@ -9418,7 +9418,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="n">
-        <v>177.3423910140991</v>
+        <v>168.5571080874142</v>
       </c>
       <c r="R129" t="n">
         <v>194.7923156738281</v>
@@ -9437,7 +9437,7 @@
         <v>41.15000000000001</v>
       </c>
       <c r="X129" t="n">
-        <v>58.599924659729</v>
+        <v>67.38520758641388</v>
       </c>
     </row>
     <row r="130">
@@ -9490,7 +9490,7 @@
         <v>50.8</v>
       </c>
       <c r="Q130" t="n">
-        <v>165.1590698023354</v>
+        <v>160.8348898618471</v>
       </c>
       <c r="R130" t="n">
         <v>-243.4170043945311</v>
@@ -9513,7 +9513,7 @@
         <v>89.61000000000001</v>
       </c>
       <c r="X130" t="n">
-        <v>54.11392580313344</v>
+        <v>58.43810574362172</v>
       </c>
     </row>
     <row r="131">
@@ -9560,7 +9560,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="n">
-        <v>117.5590912501018</v>
+        <v>116.0301933942124</v>
       </c>
       <c r="R131" t="n">
         <v>272.6049108886719</v>
@@ -9579,7 +9579,7 @@
         <v>3.355000000000018</v>
       </c>
       <c r="X131" t="n">
-        <v>158.4008196385701</v>
+        <v>159.9297174944594</v>
       </c>
     </row>
     <row r="132">
@@ -9626,7 +9626,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
-        <v>82.81784536176951</v>
+        <v>86.23378214393072</v>
       </c>
       <c r="R132" t="n">
         <v>198.3588781738281</v>
@@ -9645,7 +9645,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X132" t="n">
-        <v>146.0210328120586</v>
+        <v>142.6050960298974</v>
       </c>
     </row>
     <row r="133">
@@ -9692,7 +9692,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="n">
-        <v>102.9506194589052</v>
+        <v>102.6900460017053</v>
       </c>
       <c r="R133" t="n">
         <v>174.3235046386719</v>
@@ -9711,7 +9711,7 @@
         <v>50.90000000000001</v>
       </c>
       <c r="X133" t="n">
-        <v>122.2728851797666</v>
+        <v>122.5334586369666</v>
       </c>
     </row>
     <row r="134">
@@ -9758,7 +9758,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="n">
-        <v>155.4130675599365</v>
+        <v>154.4143708944615</v>
       </c>
       <c r="R134" t="n">
         <v>197.0580126953125</v>
@@ -9777,7 +9777,7 @@
         <v>56.38999999999999</v>
       </c>
       <c r="X134" t="n">
-        <v>98.03494513537606</v>
+        <v>99.03364180085097</v>
       </c>
     </row>
     <row r="135">
@@ -9832,7 +9832,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="n">
-        <v>108.1553584166505</v>
+        <v>108.3173803670845</v>
       </c>
       <c r="R135" t="n">
         <v>196.9762017822266</v>
@@ -9851,7 +9851,7 @@
         <v>13.87</v>
       </c>
       <c r="X135" t="n">
-        <v>102.6908433655761</v>
+        <v>102.5288214151421</v>
       </c>
     </row>
     <row r="136">
@@ -9898,7 +9898,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="n">
-        <v>152.2432804107666</v>
+        <v>150.6705841103958</v>
       </c>
       <c r="R136" t="n">
         <v>196.1707006835938</v>
@@ -9917,7 +9917,7 @@
         <v>55.93000000000001</v>
       </c>
       <c r="X136" t="n">
-        <v>99.8574202728272</v>
+        <v>101.430116573198</v>
       </c>
     </row>
     <row r="137">
@@ -9964,7 +9964,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="n">
-        <v>149.5271983365265</v>
+        <v>145.5846612457572</v>
       </c>
       <c r="R137" t="n">
         <v>192.7517395019531</v>
@@ -9983,7 +9983,7 @@
         <v>55.625</v>
       </c>
       <c r="X137" t="n">
-        <v>98.84954116542667</v>
+        <v>102.7920782561959</v>
       </c>
     </row>
     <row r="138">
@@ -10030,7 +10030,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="n">
-        <v>92.17217763264989</v>
+        <v>91.51608943939209</v>
       </c>
       <c r="R138" t="n">
         <v>161.4968176269531</v>
@@ -10049,7 +10049,7 @@
         <v>58.97999999999999</v>
       </c>
       <c r="X138" t="n">
-        <v>128.3046399943032</v>
+        <v>128.960728187561</v>
       </c>
     </row>
     <row r="139">
@@ -10096,7 +10096,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="n">
-        <v>153.3587058385215</v>
+        <v>152.7895927429199</v>
       </c>
       <c r="R139" t="n">
         <v>194.5114135742188</v>
@@ -10115,7 +10115,7 @@
         <v>55.625</v>
       </c>
       <c r="X139" t="n">
-        <v>96.77770773569733</v>
+        <v>97.34682083129888</v>
       </c>
     </row>
     <row r="140">
@@ -10162,7 +10162,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="n">
-        <v>161.9454799420322</v>
+        <v>161.143938084172</v>
       </c>
       <c r="R140" t="n">
         <v>187.2029504394531</v>
@@ -10181,7 +10181,7 @@
         <v>58.52000000000001</v>
       </c>
       <c r="X140" t="n">
-        <v>83.77747049742092</v>
+        <v>84.57901235528109</v>
       </c>
     </row>
     <row r="141">
@@ -10228,7 +10228,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="n">
-        <v>142.4363851547241</v>
+        <v>147.1951007843018</v>
       </c>
       <c r="R141" t="n">
         <v>215.3909643554688</v>
@@ -10247,7 +10247,7 @@
         <v>41.45499999999998</v>
       </c>
       <c r="X141" t="n">
-        <v>114.4095792007447</v>
+        <v>109.6508635711671</v>
       </c>
     </row>
     <row r="142">
@@ -10294,7 +10294,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="n">
-        <v>122.4396626154582</v>
+        <v>130.4981470108032</v>
       </c>
       <c r="R142" t="n">
         <v>202.0689501953125</v>
@@ -10313,7 +10313,7 @@
         <v>48.61500000000001</v>
       </c>
       <c r="X142" t="n">
-        <v>128.2442875798542</v>
+        <v>120.1858031845093</v>
       </c>
     </row>
     <row r="143">
@@ -10360,7 +10360,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="n">
-        <v>96.97709878285741</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R143" t="n">
         <v>202.8455621337891</v>
@@ -10379,7 +10379,7 @@
         <v>10.66999999999999</v>
       </c>
       <c r="X143" t="n">
-        <v>116.5384633509317</v>
+        <v>104.1510048675538</v>
       </c>
     </row>
     <row r="144">
@@ -10426,7 +10426,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="n">
-        <v>81.56950320591032</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R144" t="n">
         <v>216.4065295410156</v>
@@ -10445,7 +10445,7 @@
         <v>7.314999999999998</v>
       </c>
       <c r="X144" t="n">
-        <v>142.1520263351053</v>
+        <v>140.3881962076821</v>
       </c>
     </row>
     <row r="145">
@@ -10500,7 +10500,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="n">
-        <v>87.08579540252687</v>
+        <v>90.42588075002051</v>
       </c>
       <c r="R145" t="n">
         <v>208.0295904541016</v>
@@ -10519,7 +10519,7 @@
         <v>1.830000000000013</v>
       </c>
       <c r="X145" t="n">
-        <v>122.7737950515747</v>
+        <v>119.4337097040811</v>
       </c>
     </row>
     <row r="146">
@@ -10566,7 +10566,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="n">
-        <v>87.08579540252686</v>
+        <v>90.4258807500205</v>
       </c>
       <c r="R146" t="n">
         <v>180.353251953125</v>
@@ -10585,7 +10585,7 @@
         <v>15.24000000000001</v>
       </c>
       <c r="X146" t="n">
-        <v>108.5074565505981</v>
+        <v>105.1673712031045</v>
       </c>
     </row>
     <row r="147">
@@ -10706,7 +10706,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="n">
-        <v>82.05834274715184</v>
+        <v>72.4768479665122</v>
       </c>
       <c r="R148" t="n">
         <v>182.9280895996094</v>
@@ -10725,7 +10725,7 @@
         <v>24.38499999999999</v>
       </c>
       <c r="X148" t="n">
-        <v>125.2547468524576</v>
+        <v>134.8362416330972</v>
       </c>
     </row>
     <row r="149">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="n">
-        <v>96.97709878285741</v>
+        <v>109.3645572662354</v>
       </c>
       <c r="R149" t="n">
         <v>124.6149450683594</v>
@@ -10807,7 +10807,7 @@
         <v>94.48999999999998</v>
       </c>
       <c r="X149" t="n">
-        <v>35.25784628550201</v>
+        <v>22.87038780212407</v>
       </c>
     </row>
     <row r="150">
@@ -10862,7 +10862,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="n">
-        <v>118.0434942245484</v>
+        <v>121.1203893025718</v>
       </c>
       <c r="R150" t="n">
         <v>122.3016436767578</v>
@@ -10881,7 +10881,7 @@
         <v>53.34</v>
       </c>
       <c r="X150" t="n">
-        <v>57.59814945220946</v>
+        <v>54.52125437418604</v>
       </c>
     </row>
     <row r="151">
@@ -10936,7 +10936,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="n">
-        <v>153.6959443878742</v>
+        <v>155.4483571130572</v>
       </c>
       <c r="R151" t="n">
         <v>197.9338671875</v>
@@ -10955,7 +10955,7 @@
         <v>50.13999999999999</v>
       </c>
       <c r="X151" t="n">
-        <v>94.37792279962585</v>
+        <v>92.62551007444284</v>
       </c>
     </row>
     <row r="152">
@@ -11010,7 +11010,7 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="n">
-        <v>149.309531847636</v>
+        <v>148.2102298045631</v>
       </c>
       <c r="R152" t="n">
         <v>195.5231591796875</v>
@@ -11029,7 +11029,7 @@
         <v>44.04500000000002</v>
       </c>
       <c r="X152" t="n">
-        <v>90.2586273320515</v>
+        <v>91.35792937512443</v>
       </c>
     </row>
     <row r="153">
@@ -11084,7 +11084,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="n">
-        <v>99.53048229217529</v>
+        <v>95.17432848612475</v>
       </c>
       <c r="R153" t="n">
         <v>205.797646484375</v>
@@ -11103,7 +11103,7 @@
         <v>25.14500000000001</v>
       </c>
       <c r="X153" t="n">
-        <v>131.4121641921997</v>
+        <v>135.7683179982502</v>
       </c>
     </row>
     <row r="154">
@@ -11150,7 +11150,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="n">
-        <v>87.08579540252686</v>
+        <v>90.4258807500205</v>
       </c>
       <c r="R154" t="n">
         <v>181.0890826416016</v>
@@ -11169,7 +11169,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="X154" t="n">
-        <v>112.2932872390747</v>
+        <v>108.9532018915811</v>
       </c>
     </row>
     <row r="155">
@@ -11216,7 +11216,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="n">
-        <v>88.27785950447986</v>
+        <v>89.92160603635085</v>
       </c>
       <c r="R155" t="n">
         <v>267.7981274414062</v>
@@ -11235,7 +11235,7 @@
         <v>0.6100000000000136</v>
       </c>
       <c r="X155" t="n">
-        <v>180.1302679369263</v>
+        <v>178.4865214050553</v>
       </c>
     </row>
     <row r="156">
@@ -11282,7 +11282,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="n">
-        <v>191.6084043299076</v>
+        <v>170.3525619395535</v>
       </c>
       <c r="R156" t="n">
         <v>196.9072430419922</v>
@@ -11301,7 +11301,7 @@
         <v>0.6100000000000136</v>
       </c>
       <c r="X156" t="n">
-        <v>5.908838712084531</v>
+        <v>27.16468110243872</v>
       </c>
     </row>
     <row r="157">
@@ -11348,7 +11348,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="n">
-        <v>162.5</v>
+        <v>163.433341944439</v>
       </c>
       <c r="R157" t="n">
         <v>168.6761022949219</v>
@@ -11367,7 +11367,7 @@
         <v>27.43000000000001</v>
       </c>
       <c r="X157" t="n">
-        <v>33.6061022949219</v>
+        <v>32.67276035048295</v>
       </c>
     </row>
     <row r="158">
@@ -11414,7 +11414,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="n">
-        <v>106.2481005986533</v>
+        <v>106.479581197103</v>
       </c>
       <c r="R158" t="n">
         <v>208.0484533691406</v>
@@ -11433,7 +11433,7 @@
         <v>8.22999999999999</v>
       </c>
       <c r="X158" t="n">
-        <v>110.0303527704873</v>
+        <v>109.7988721720376</v>
       </c>
     </row>
     <row r="159">
@@ -11480,7 +11480,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="n">
-        <v>106.2481005986533</v>
+        <v>106.479581197103</v>
       </c>
       <c r="R159" t="n">
         <v>213.3552880859375</v>
@@ -11499,7 +11499,7 @@
         <v>7.469999999999999</v>
       </c>
       <c r="X159" t="n">
-        <v>114.5771874872842</v>
+        <v>114.3457068888345</v>
       </c>
     </row>
     <row r="160">
@@ -11546,7 +11546,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="n">
-        <v>166.9329770947595</v>
+        <v>158.9341037896509</v>
       </c>
       <c r="R160" t="n">
         <v>201.9632122802734</v>
@@ -11565,7 +11565,7 @@
         <v>6.860000000000014</v>
       </c>
       <c r="X160" t="n">
-        <v>41.89023518551394</v>
+        <v>49.88910849062253</v>
       </c>
     </row>
     <row r="161">
@@ -11612,7 +11612,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="n">
-        <v>162.9097560411429</v>
+        <v>162.5023421950413</v>
       </c>
       <c r="R161" t="n">
         <v>181.6653771972656</v>
@@ -11631,7 +11631,7 @@
         <v>6.094999999999999</v>
       </c>
       <c r="X161" t="n">
-        <v>24.85062115612271</v>
+        <v>25.25803500222429</v>
       </c>
     </row>
     <row r="162">
@@ -11744,7 +11744,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="n">
-        <v>31.90164589715329</v>
+        <v>40.06637112854744</v>
       </c>
       <c r="R163" t="n">
         <v>210.8124108886719</v>
@@ -11763,7 +11763,7 @@
         <v>45.72000000000003</v>
       </c>
       <c r="X163" t="n">
-        <v>224.6307649915186</v>
+        <v>216.4660397601244</v>
       </c>
     </row>
     <row r="164">
@@ -11810,7 +11810,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="n">
-        <v>47.16523523511717</v>
+        <v>51.88420331914772</v>
       </c>
       <c r="R164" t="n">
         <v>211.4637170410156</v>
@@ -11829,7 +11829,7 @@
         <v>45.72000000000003</v>
       </c>
       <c r="X164" t="n">
-        <v>210.0184818058984</v>
+        <v>205.2995137218679</v>
       </c>
     </row>
     <row r="165">
@@ -11876,7 +11876,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="n">
-        <v>73.34200266992407</v>
+        <v>68.97730827331543</v>
       </c>
       <c r="R165" t="n">
         <v>204.6012658691406</v>
@@ -11895,7 +11895,7 @@
         <v>48.77000000000001</v>
       </c>
       <c r="X165" t="n">
-        <v>180.0292631992165</v>
+        <v>184.3939575958252</v>
       </c>
     </row>
     <row r="166">
@@ -11942,7 +11942,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="n">
-        <v>162.5764532823827</v>
+        <v>162.3183111384303</v>
       </c>
       <c r="R166" t="n">
         <v>194.5455895996094</v>
@@ -11961,7 +11961,7 @@
         <v>42.67000000000002</v>
       </c>
       <c r="X166" t="n">
-        <v>74.6391363172267</v>
+        <v>74.8972784611791</v>
       </c>
     </row>
     <row r="167">
@@ -12008,7 +12008,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="n">
-        <v>172.2797422706113</v>
+        <v>171.7241350842199</v>
       </c>
       <c r="R167" t="n">
         <v>201.7957043457031</v>
@@ -12027,7 +12027,7 @@
         <v>24.38499999999999</v>
       </c>
       <c r="X167" t="n">
-        <v>53.90096207509177</v>
+        <v>54.45656926148325</v>
       </c>
     </row>
     <row r="168">
@@ -12397,7 +12397,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X172" t="n">
-        <v>20.97207946777337</v>
+        <v>20.9720794677734</v>
       </c>
     </row>
     <row r="173">
@@ -12471,7 +12471,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X173" t="n">
-        <v>20.97207946777337</v>
+        <v>20.9720794677734</v>
       </c>
     </row>
     <row r="174">
@@ -12518,7 +12518,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="n">
-        <v>72.35348224639893</v>
+        <v>67.85045086551892</v>
       </c>
       <c r="R174" t="n">
         <v>201.664755859375</v>
@@ -12537,7 +12537,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X174" t="n">
-        <v>159.7912736129761</v>
+        <v>164.2943049938561</v>
       </c>
     </row>
     <row r="175">
@@ -12584,7 +12584,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="n">
-        <v>60.95234553019213</v>
+        <v>57.39965438842773</v>
       </c>
       <c r="R175" t="n">
         <v>204.2561053466797</v>
@@ -12603,7 +12603,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="X175" t="n">
-        <v>161.5937598164876</v>
+        <v>165.146450958252</v>
       </c>
     </row>
     <row r="176">
@@ -12650,7 +12650,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="n">
-        <v>178.8234063990413</v>
+        <v>184.1367716269208</v>
       </c>
       <c r="R176" t="n">
         <v>195.7810913085938</v>
@@ -12669,7 +12669,7 @@
         <v>36.57499999999999</v>
       </c>
       <c r="X176" t="n">
-        <v>53.53268490955253</v>
+        <v>48.21931968167306</v>
       </c>
     </row>
     <row r="177">
@@ -12716,7 +12716,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="n">
-        <v>85.21693207224416</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R177" t="n">
         <v>201.7258874511719</v>
@@ -12735,7 +12735,7 @@
         <v>55.17000000000002</v>
       </c>
       <c r="X177" t="n">
-        <v>171.6789553789277</v>
+        <v>173.5625541178384</v>
       </c>
     </row>
     <row r="178">
@@ -12782,7 +12782,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="n">
-        <v>41.46380837893672</v>
+        <v>40.93800229775353</v>
       </c>
       <c r="R178" t="n">
         <v>158.2761102294922</v>
@@ -12801,7 +12801,7 @@
         <v>45.72</v>
       </c>
       <c r="X178" t="n">
-        <v>162.5323018505555</v>
+        <v>163.0581079317387</v>
       </c>
     </row>
     <row r="179">
@@ -12848,7 +12848,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="n">
-        <v>93.29343489837279</v>
+        <v>92.39433788251489</v>
       </c>
       <c r="R179" t="n">
         <v>179.0220471191406</v>
@@ -12867,7 +12867,7 @@
         <v>56.08500000000001</v>
       </c>
       <c r="X179" t="n">
-        <v>141.8136122207678</v>
+        <v>142.7127092366257</v>
       </c>
     </row>
     <row r="180">
@@ -12914,7 +12914,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662354</v>
       </c>
       <c r="R180" t="n">
         <v>228.3675567626953</v>
@@ -12933,7 +12933,7 @@
         <v>1.525000000000006</v>
       </c>
       <c r="X180" t="n">
-        <v>146.5592234293618</v>
+        <v>120.52799949646</v>
       </c>
     </row>
     <row r="181">
@@ -12980,7 +12980,7 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662354</v>
       </c>
       <c r="R181" t="n">
         <v>200.9375567626953</v>
@@ -12999,7 +12999,7 @@
         <v>15.24000000000001</v>
       </c>
       <c r="X181" t="n">
-        <v>132.8442234293618</v>
+        <v>106.81299949646</v>
       </c>
     </row>
     <row r="182">
@@ -13046,7 +13046,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662354</v>
       </c>
       <c r="R182" t="n">
         <v>226.2375567626953</v>
@@ -13065,7 +13065,7 @@
         <v>2.590000000000003</v>
       </c>
       <c r="X182" t="n">
-        <v>145.4942234293618</v>
+        <v>119.46299949646</v>
       </c>
     </row>
     <row r="183">
@@ -13112,7 +13112,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R183" t="n">
         <v>224.0975567626953</v>
@@ -13131,7 +13131,7 @@
         <v>3.659999999999997</v>
       </c>
       <c r="X183" t="n">
-        <v>144.4242234293618</v>
+        <v>118.39299949646</v>
       </c>
     </row>
     <row r="184">
@@ -13178,7 +13178,7 @@
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R184" t="n">
         <v>193.3175567626953</v>
@@ -13197,7 +13197,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X184" t="n">
-        <v>129.0342234293618</v>
+        <v>103.00299949646</v>
       </c>
     </row>
     <row r="185">
@@ -13244,7 +13244,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="n">
-        <v>83.33333333333348</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R185" t="n">
         <v>193.3175567626953</v>
@@ -13263,7 +13263,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X185" t="n">
-        <v>129.0342234293618</v>
+        <v>103.00299949646</v>
       </c>
     </row>
     <row r="186">
@@ -13310,7 +13310,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="n">
-        <v>100.6798967987811</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R186" t="n">
         <v>190.2427734375</v>
@@ -13329,7 +13329,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X186" t="n">
-        <v>108.6128766387189</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="187">
@@ -13376,7 +13376,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="n">
-        <v>100.6798967987811</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R187" t="n">
         <v>190.2427734375</v>
@@ -13395,7 +13395,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X187" t="n">
-        <v>108.6128766387189</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="188">
@@ -13442,7 +13442,7 @@
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="n">
-        <v>100.6798967987811</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R188" t="n">
         <v>190.2427734375</v>
@@ -13461,7 +13461,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X188" t="n">
-        <v>108.6128766387189</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="189">
@@ -13508,7 +13508,7 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
-        <v>100.6798967987811</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R189" t="n">
         <v>190.2427734375</v>
@@ -13527,7 +13527,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X189" t="n">
-        <v>108.6128766387189</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="190">
@@ -13574,7 +13574,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="n">
-        <v>100.7163457140118</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R190" t="n">
         <v>190.2427734375</v>
@@ -13593,7 +13593,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X190" t="n">
-        <v>108.5764277234882</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="191">
@@ -13640,7 +13640,7 @@
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="n">
-        <v>100.7163457140118</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R191" t="n">
         <v>190.2427734375</v>
@@ -13659,7 +13659,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X191" t="n">
-        <v>108.5764277234882</v>
+        <v>125.9594401041665</v>
       </c>
     </row>
     <row r="192">
@@ -13712,7 +13712,7 @@
         <v>50</v>
       </c>
       <c r="Q192" t="n">
-        <v>36.22512908518649</v>
+        <v>36.44512530702649</v>
       </c>
       <c r="R192" t="n">
         <v>209.6059387207031</v>
@@ -13735,7 +13735,7 @@
         <v>95.19999999999999</v>
       </c>
       <c r="X192" t="n">
-        <v>174.3808096355166</v>
+        <v>174.1608134136766</v>
       </c>
     </row>
     <row r="193">
@@ -13790,7 +13790,7 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="n">
-        <v>74.03392623433366</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R193" t="n">
         <v>111.5664202880859</v>
@@ -13809,7 +13809,7 @@
         <v>56.39000000000001</v>
       </c>
       <c r="X193" t="n">
-        <v>93.92249405375223</v>
+        <v>84.62308695475241</v>
       </c>
     </row>
     <row r="194">
@@ -13870,7 +13870,7 @@
         <v>127</v>
       </c>
       <c r="Q194" t="n">
-        <v>82.60909223323407</v>
+        <v>82.2491986870296</v>
       </c>
       <c r="R194" t="n">
         <v>74.6215521240234</v>
@@ -13893,7 +13893,7 @@
         <v>91.44</v>
       </c>
       <c r="X194" t="n">
-        <v>59.68245989078935</v>
+        <v>60.04235343699381</v>
       </c>
     </row>
     <row r="195">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
-        <v>102.5607188542685</v>
+        <v>101.0321617126465</v>
       </c>
       <c r="R195" t="n">
         <v>24.32459350585941</v>
@@ -13975,7 +13975,7 @@
         <v>81.66999999999999</v>
       </c>
       <c r="X195" t="n">
-        <v>26.63387465159089</v>
+        <v>28.16243179321292</v>
       </c>
     </row>
     <row r="196">
@@ -14030,7 +14030,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
-        <v>82.97773053326738</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R196" t="n">
         <v>113.2911029052734</v>
@@ -14049,7 +14049,7 @@
         <v>54.86500000000001</v>
       </c>
       <c r="X196" t="n">
-        <v>85.17837237200602</v>
+        <v>84.82276957193992</v>
       </c>
     </row>
     <row r="197">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
-        <v>120.2717781066895</v>
+        <v>132.2531783434645</v>
       </c>
       <c r="R197" t="n">
         <v>47.74305908203118</v>
@@ -14131,7 +14131,7 @@
         <v>117.805</v>
       </c>
       <c r="X197" t="n">
-        <v>33.99628097534173</v>
+        <v>22.01488073856669</v>
       </c>
     </row>
     <row r="198">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="n">
-        <v>143.8286388887681</v>
+        <v>135.5056981999653</v>
       </c>
       <c r="R198" t="n">
         <v>39.1203588867188</v>
@@ -14213,7 +14213,7 @@
         <v>85.94999999999999</v>
       </c>
       <c r="X198" t="n">
-        <v>54.40171999795069</v>
+        <v>62.72466068675354</v>
       </c>
     </row>
     <row r="199">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="n">
-        <v>165.3985616165933</v>
+        <v>163.4277508306659</v>
       </c>
       <c r="R199" t="n">
         <v>51.96296264648439</v>
@@ -14295,7 +14295,7 @@
         <v>100.585</v>
       </c>
       <c r="X199" t="n">
-        <v>41.70940102989107</v>
+        <v>43.68021181581844</v>
       </c>
     </row>
     <row r="200">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="n">
-        <v>130.9750867962252</v>
+        <v>140.0253455172731</v>
       </c>
       <c r="R200" t="n">
         <v>-16.8158532714844</v>
@@ -14377,7 +14377,7 @@
         <v>92.965</v>
       </c>
       <c r="X200" t="n">
-        <v>64.65405993229044</v>
+        <v>55.60380121124254</v>
       </c>
     </row>
     <row r="201">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="n">
-        <v>-28.76204641004559</v>
+        <v>-18.71986389160156</v>
       </c>
       <c r="R201" t="n">
         <v>-27.87827758789064</v>
@@ -14459,7 +14459,7 @@
         <v>71.935</v>
       </c>
       <c r="X201" t="n">
-        <v>233.748768822155</v>
+        <v>223.7065863037109</v>
       </c>
     </row>
     <row r="202">
@@ -14600,7 +14600,7 @@
       </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="n">
-        <v>92.29270503108826</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R203" t="n">
         <v>169.8136157226562</v>
@@ -14623,7 +14623,7 @@
         <v>54.845</v>
       </c>
       <c r="X203" t="n">
-        <v>81.50591069156793</v>
+        <v>64.43405845642086</v>
       </c>
     </row>
     <row r="204">
@@ -14676,7 +14676,7 @@
         <v>102</v>
       </c>
       <c r="Q204" t="n">
-        <v>153.3587058385215</v>
+        <v>152.7895927429199</v>
       </c>
       <c r="R204" t="n">
         <v>192.2810974121094</v>
@@ -14699,7 +14699,7 @@
         <v>105</v>
       </c>
       <c r="X204" t="n">
-        <v>41.9223915735879</v>
+        <v>42.49150466918945</v>
       </c>
     </row>
     <row r="205">
@@ -14746,7 +14746,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="n">
-        <v>89.27292803329834</v>
+        <v>92.34069450567728</v>
       </c>
       <c r="R205" t="n">
         <v>196.6865386962891</v>
@@ -14765,7 +14765,7 @@
         <v>21</v>
       </c>
       <c r="X205" t="n">
-        <v>128.4136106629907</v>
+        <v>125.3458441906118</v>
       </c>
     </row>
     <row r="206">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="n">
-        <v>125.4604122965883</v>
+        <v>129.8747134335314</v>
       </c>
       <c r="R206" t="n">
         <v>203.2963256835938</v>
@@ -14839,7 +14839,7 @@
         <v>73</v>
       </c>
       <c r="X206" t="n">
-        <v>98.83591338700549</v>
+        <v>94.42161225006237</v>
       </c>
     </row>
     <row r="207">
@@ -14890,7 +14890,7 @@
       </c>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="n">
-        <v>173.1208506951907</v>
+        <v>169.405460357666</v>
       </c>
       <c r="R207" t="n">
         <v>173.5551300048828</v>
@@ -14913,7 +14913,7 @@
         <v>59</v>
       </c>
       <c r="X207" t="n">
-        <v>21.43427930969216</v>
+        <v>25.1496696472168</v>
       </c>
     </row>
     <row r="208">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="n">
-        <v>109.7668778530998</v>
+        <v>100.5528494167635</v>
       </c>
       <c r="R208" t="n">
         <v>115.8902893066406</v>
@@ -14987,7 +14987,7 @@
         <v>144</v>
       </c>
       <c r="X208" t="n">
-        <v>12.12341145354085</v>
+        <v>21.33743988987712</v>
       </c>
     </row>
     <row r="209">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="n">
-        <v>109.777303563945</v>
+        <v>100.5518840000068</v>
       </c>
       <c r="R209" t="n">
         <v>201.8902893066406</v>
@@ -15061,7 +15061,7 @@
         <v>58</v>
       </c>
       <c r="X209" t="n">
-        <v>98.11298574269563</v>
+        <v>107.3384053066339</v>
       </c>
     </row>
   </sheetData>
